--- a/Hardware/Time-O-Mat_MoBo/Time-O-Mat_MoBo_H01/Manufacturing/BOMMoBoH01.xlsx
+++ b/Hardware/Time-O-Mat_MoBo/Time-O-Mat_MoBo_H01/Manufacturing/BOMMoBoH01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marou\Projekty\Vedatori\Time-O-Mat\Hardware\Time-O-Mat_MoBo\Time-O-Mat_MoBo_H01\Manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E7D19D-3BE7-4E39-B357-F6468E6CFE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A55151-883A-4C03-A0E9-24DC9A6E2D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F26CB2DC-1094-445E-B1F7-2B23E1E734D0}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F26CB2DC-1094-445E-B1F7-2B23E1E734D0}"/>
   </bookViews>
   <sheets>
     <sheet name="List3" sheetId="5" r:id="rId1"/>
